--- a/results/FrequencyTables/27974196_gLTR9.xlsx
+++ b/results/FrequencyTables/27974196_gLTR9.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.170212765957447</v>
+        <v>0.295620437956204</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.29683698296837</v>
       </c>
       <c r="D2">
-        <v>0.212765957446809</v>
+        <v>0.152068126520681</v>
       </c>
       <c r="E2">
-        <v>0.0212765957446809</v>
+        <v>0.0693430656934307</v>
       </c>
       <c r="F2">
-        <v>0.127659574468085</v>
+        <v>0.346715328467153</v>
       </c>
       <c r="G2">
-        <v>0.617021276595745</v>
+        <v>0.217761557177616</v>
       </c>
       <c r="H2">
-        <v>0.0851063829787234</v>
+        <v>0.237226277372263</v>
       </c>
       <c r="I2">
-        <v>0.0425531914893617</v>
+        <v>0.13625304136253</v>
       </c>
       <c r="J2">
-        <v>0.106382978723404</v>
+        <v>0.0559610705596107</v>
       </c>
       <c r="K2">
-        <v>0.0638297872340425</v>
+        <v>0.0279805352798054</v>
       </c>
       <c r="L2">
-        <v>0.234042553191489</v>
+        <v>0.0705596107055961</v>
       </c>
       <c r="M2">
-        <v>0.0851063829787234</v>
+        <v>0.183698296836983</v>
       </c>
       <c r="N2">
-        <v>0.106382978723404</v>
+        <v>0.0340632603406326</v>
       </c>
       <c r="O2">
-        <v>0.468085106382979</v>
+        <v>0.192214111922141</v>
       </c>
       <c r="P2">
-        <v>0.702127659574468</v>
+        <v>0.531630170316302</v>
       </c>
       <c r="Q2">
-        <v>0.0212765957446809</v>
+        <v>0.0656934306569343</v>
       </c>
       <c r="R2">
-        <v>0.0212765957446809</v>
+        <v>0.01338199513382</v>
       </c>
       <c r="S2">
-        <v>0.468085106382979</v>
+        <v>0.21654501216545</v>
       </c>
       <c r="T2">
-        <v>0.0425531914893617</v>
+        <v>0.327250608272506</v>
       </c>
       <c r="U2">
-        <v>0.659574468085106</v>
+        <v>0.265206812652068</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.702127659574468</v>
+        <v>0.416058394160584</v>
       </c>
       <c r="X2">
-        <v>0.25531914893617</v>
+        <v>0.115571776155718</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.212765957446809</v>
+        <v>0.262773722627737</v>
       </c>
       <c r="C3">
-        <v>0.170212765957447</v>
+        <v>0.138686131386861</v>
       </c>
       <c r="D3">
-        <v>0.0425531914893617</v>
+        <v>0.0316301703163017</v>
       </c>
       <c r="E3">
-        <v>0.148936170212766</v>
+        <v>0.0182481751824818</v>
       </c>
       <c r="F3">
-        <v>0.319148936170213</v>
+        <v>0.165450121654501</v>
       </c>
       <c r="G3">
-        <v>0.127659574468085</v>
+        <v>0.0462287104622871</v>
       </c>
       <c r="H3">
-        <v>0.638297872340426</v>
+        <v>0.36374695863747</v>
       </c>
       <c r="I3">
-        <v>0.0425531914893617</v>
+        <v>0.0583941605839416</v>
       </c>
       <c r="J3">
-        <v>0.574468085106383</v>
+        <v>0.759124087591241</v>
       </c>
       <c r="K3">
-        <v>0.0425531914893617</v>
+        <v>0.347931873479319</v>
       </c>
       <c r="L3">
-        <v>0.0638297872340425</v>
+        <v>0.571776155717762</v>
       </c>
       <c r="M3">
-        <v>0.0212765957446809</v>
+        <v>0.0425790754257908</v>
       </c>
       <c r="N3">
-        <v>0.0851063829787234</v>
+        <v>0.375912408759124</v>
       </c>
       <c r="O3">
-        <v>0.191489361702128</v>
+        <v>0.355231143552311</v>
       </c>
       <c r="P3">
-        <v>0.148936170212766</v>
+        <v>0.0608272506082725</v>
       </c>
       <c r="Q3">
-        <v>0.74468085106383</v>
+        <v>0.58029197080292</v>
       </c>
       <c r="R3">
-        <v>0.148936170212766</v>
+        <v>0.0425790754257908</v>
       </c>
       <c r="S3">
-        <v>0.191489361702128</v>
+        <v>0.395377128953771</v>
       </c>
       <c r="T3">
-        <v>0.148936170212766</v>
+        <v>0.0462287104622871</v>
       </c>
       <c r="U3">
-        <v>0.0212765957446809</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0425531914893617</v>
+        <v>0.193430656934307</v>
       </c>
       <c r="X3">
-        <v>0.234042553191489</v>
+        <v>0.386861313868613</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.51063829787234</v>
+        <v>0.413625304136253</v>
       </c>
       <c r="C4">
-        <v>0.297872340425532</v>
+        <v>0.312652068126521</v>
       </c>
       <c r="D4">
-        <v>0.723404255319149</v>
+        <v>0.498783454987835</v>
       </c>
       <c r="E4">
-        <v>0.0425531914893617</v>
+        <v>0.5669099756691</v>
       </c>
       <c r="F4">
-        <v>0.531914893617021</v>
+        <v>0.232360097323601</v>
       </c>
       <c r="G4">
-        <v>0.0425531914893617</v>
+        <v>0.591240875912409</v>
       </c>
       <c r="H4">
-        <v>0.127659574468085</v>
+        <v>0.114355231143552</v>
       </c>
       <c r="I4">
-        <v>0.0212765957446809</v>
+        <v>0.250608272506083</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0109489051094891</v>
       </c>
       <c r="K4">
-        <v>0.276595744680851</v>
+        <v>0.171532846715328</v>
       </c>
       <c r="L4">
-        <v>0.553191489361702</v>
+        <v>0.190997566909976</v>
       </c>
       <c r="M4">
-        <v>0.851063829787234</v>
+        <v>0.512165450121654</v>
       </c>
       <c r="N4">
-        <v>0.0212765957446809</v>
+        <v>0.0279805352798054</v>
       </c>
       <c r="O4">
-        <v>0.148936170212766</v>
+        <v>0.354014598540146</v>
       </c>
       <c r="P4">
-        <v>0.106382978723404</v>
+        <v>0.0875912408759124</v>
       </c>
       <c r="Q4">
-        <v>0.148936170212766</v>
+        <v>0.263990267639903</v>
       </c>
       <c r="R4">
-        <v>0.0212765957446809</v>
+        <v>0.341849148418492</v>
       </c>
       <c r="S4">
-        <v>0.127659574468085</v>
+        <v>0.0267639902676399</v>
       </c>
       <c r="T4">
-        <v>0.48936170212766</v>
+        <v>0.403892944038929</v>
       </c>
       <c r="U4">
-        <v>0.297872340425532</v>
+        <v>0.367396593673966</v>
       </c>
       <c r="V4">
         <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="X4">
-        <v>0.0212765957446809</v>
+        <v>0.25669099756691</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.106382978723404</v>
+        <v>0.0279805352798054</v>
       </c>
       <c r="C5">
-        <v>0.531914893617021</v>
+        <v>0.251824817518248</v>
       </c>
       <c r="D5">
-        <v>0.0212765957446809</v>
+        <v>0.317518248175182</v>
       </c>
       <c r="E5">
-        <v>0.787234042553192</v>
+        <v>0.345498783454988</v>
       </c>
       <c r="F5">
-        <v>0.0212765957446809</v>
+        <v>0.255474452554745</v>
       </c>
       <c r="G5">
-        <v>0.212765957446809</v>
+        <v>0.144768856447689</v>
       </c>
       <c r="H5">
-        <v>0.148936170212766</v>
+        <v>0.284671532846715</v>
       </c>
       <c r="I5">
-        <v>0.893617021276596</v>
+        <v>0.554744525547445</v>
       </c>
       <c r="J5">
-        <v>0.319148936170213</v>
+        <v>0.173965936739659</v>
       </c>
       <c r="K5">
-        <v>0.617021276595745</v>
+        <v>0.452554744525547</v>
       </c>
       <c r="L5">
-        <v>0.148936170212766</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="M5">
-        <v>0.0425531914893617</v>
+        <v>0.261557177615572</v>
       </c>
       <c r="N5">
-        <v>0.787234042553192</v>
+        <v>0.562043795620438</v>
       </c>
       <c r="O5">
-        <v>0.191489361702128</v>
+        <v>0.0985401459854015</v>
       </c>
       <c r="P5">
-        <v>0.0425531914893617</v>
+        <v>0.319951338199513</v>
       </c>
       <c r="Q5">
-        <v>0.0851063829787234</v>
+        <v>0.0900243309002433</v>
       </c>
       <c r="R5">
-        <v>0.808510638297872</v>
+        <v>0.602189781021898</v>
       </c>
       <c r="S5">
-        <v>0.212765957446809</v>
+        <v>0.361313868613139</v>
       </c>
       <c r="T5">
-        <v>0.319148936170213</v>
+        <v>0.222627737226277</v>
       </c>
       <c r="U5">
-        <v>0.0212765957446809</v>
+        <v>0.360097323600973</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.25531914893617</v>
+        <v>0.383211678832117</v>
       </c>
       <c r="X5">
-        <v>0.48936170212766</v>
+        <v>0.240875912408759</v>
       </c>
     </row>
   </sheetData>

--- a/results/FrequencyTables/27974196_gLTR9.xlsx
+++ b/results/FrequencyTables/27974196_gLTR9.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.295620437956204</v>
+        <v>0.0118606375092661</v>
       </c>
       <c r="C2">
-        <v>0.29683698296837</v>
+        <v>0.00593031875463306</v>
       </c>
       <c r="D2">
-        <v>0.152068126520681</v>
+        <v>0.00593031875463306</v>
       </c>
       <c r="E2">
-        <v>0.0693430656934307</v>
+        <v>0.00889547813194959</v>
       </c>
       <c r="F2">
-        <v>0.346715328467153</v>
+        <v>0.00148257968865827</v>
       </c>
       <c r="G2">
-        <v>0.217761557177616</v>
+        <v>0.011119347664937</v>
       </c>
       <c r="H2">
-        <v>0.237226277372263</v>
+        <v>0.116382505559674</v>
       </c>
       <c r="I2">
-        <v>0.13625304136253</v>
+        <v>0.0429948109710897</v>
       </c>
       <c r="J2">
-        <v>0.0559610705596107</v>
+        <v>0.0148257968865827</v>
       </c>
       <c r="K2">
-        <v>0.0279805352798054</v>
+        <v>0.0022238695329874</v>
       </c>
       <c r="L2">
-        <v>0.0705596107055961</v>
+        <v>0.00889547813194959</v>
       </c>
       <c r="M2">
-        <v>0.183698296836983</v>
+        <v>0.00148257968865827</v>
       </c>
       <c r="N2">
-        <v>0.0340632603406326</v>
+        <v>0.00148257968865827</v>
       </c>
       <c r="O2">
-        <v>0.192214111922141</v>
+        <v>0.000741289844329133</v>
       </c>
       <c r="P2">
-        <v>0.531630170316302</v>
+        <v>0.0185322461082283</v>
       </c>
       <c r="Q2">
-        <v>0.0656934306569343</v>
+        <v>0.00148257968865827</v>
       </c>
       <c r="R2">
-        <v>0.01338199513382</v>
+        <v>0.00815418828762046</v>
       </c>
       <c r="S2">
-        <v>0.21654501216545</v>
+        <v>0.982209043736101</v>
       </c>
       <c r="T2">
-        <v>0.327250608272506</v>
+        <v>0.00815418828762046</v>
       </c>
       <c r="U2">
-        <v>0.265206812652068</v>
+        <v>0.0422535211267606</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.0289103039288362</v>
       </c>
       <c r="W2">
-        <v>0.416058394160584</v>
+        <v>0.00815418828762046</v>
       </c>
       <c r="X2">
-        <v>0.115571776155718</v>
+        <v>0.0022238695329874</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.262773722627737</v>
+        <v>0.00148257968865827</v>
       </c>
       <c r="C3">
-        <v>0.138686131386861</v>
+        <v>0.0022238695329874</v>
       </c>
       <c r="D3">
-        <v>0.0316301703163017</v>
+        <v>0.687916975537435</v>
       </c>
       <c r="E3">
-        <v>0.0182481751824818</v>
+        <v>0.0022238695329874</v>
       </c>
       <c r="F3">
-        <v>0.165450121654501</v>
+        <v>0.0378057820607858</v>
       </c>
       <c r="G3">
-        <v>0.0462287104622871</v>
+        <v>0.00593031875463306</v>
       </c>
       <c r="H3">
-        <v>0.36374695863747</v>
+        <v>0.00518902891030393</v>
       </c>
       <c r="I3">
-        <v>0.0583941605839416</v>
+        <v>0.916234247590808</v>
       </c>
       <c r="J3">
-        <v>0.759124087591241</v>
+        <v>0.97405485544848</v>
       </c>
       <c r="K3">
-        <v>0.347931873479319</v>
+        <v>0.00148257968865827</v>
       </c>
       <c r="L3">
-        <v>0.571776155717762</v>
+        <v>0.00518902891030393</v>
       </c>
       <c r="M3">
-        <v>0.0425790754257908</v>
+        <v>0.00370644922164566</v>
       </c>
       <c r="N3">
-        <v>0.375912408759124</v>
+        <v>0.00518902891030393</v>
       </c>
       <c r="O3">
-        <v>0.355231143552311</v>
+        <v>0.983691623424759</v>
       </c>
       <c r="P3">
-        <v>0.0608272506082725</v>
+        <v>0.00148257968865827</v>
       </c>
       <c r="Q3">
-        <v>0.58029197080292</v>
+        <v>0.000741289844329133</v>
       </c>
       <c r="R3">
-        <v>0.0425790754257908</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.395377128953771</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0462287104622871</v>
+        <v>0.981467753891772</v>
       </c>
       <c r="U3">
-        <v>0.0072992700729927</v>
+        <v>0.0896960711638251</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0.193430656934307</v>
+        <v>0.0022238695329874</v>
       </c>
       <c r="X3">
-        <v>0.386861313868613</v>
+        <v>0.00296515937731653</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.413625304136253</v>
+        <v>0.98295033358043</v>
       </c>
       <c r="C4">
-        <v>0.312652068126521</v>
+        <v>0.99110452186805</v>
       </c>
       <c r="D4">
-        <v>0.498783454987835</v>
+        <v>0.00963676797627873</v>
       </c>
       <c r="E4">
-        <v>0.5669099756691</v>
+        <v>0.985174203113417</v>
       </c>
       <c r="F4">
-        <v>0.232360097323601</v>
+        <v>0.0192735359525575</v>
       </c>
       <c r="G4">
-        <v>0.591240875912409</v>
+        <v>0.979243884358784</v>
       </c>
       <c r="H4">
-        <v>0.114355231143552</v>
+        <v>0.865826538176427</v>
       </c>
       <c r="I4">
-        <v>0.250608272506083</v>
+        <v>0.00296515937731653</v>
       </c>
       <c r="J4">
-        <v>0.0109489051094891</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.171532846715328</v>
+        <v>0.022238695329874</v>
       </c>
       <c r="L4">
-        <v>0.190997566909976</v>
+        <v>0.98295033358043</v>
       </c>
       <c r="M4">
-        <v>0.512165450121654</v>
+        <v>0.994069681245367</v>
       </c>
       <c r="N4">
-        <v>0.0279805352798054</v>
+        <v>0.988880652335063</v>
       </c>
       <c r="O4">
-        <v>0.354014598540146</v>
+        <v>0.0022238695329874</v>
       </c>
       <c r="P4">
-        <v>0.0875912408759124</v>
+        <v>0.972572275759822</v>
       </c>
       <c r="Q4">
-        <v>0.263990267639903</v>
+        <v>0.997776130467013</v>
       </c>
       <c r="R4">
-        <v>0.341849148418492</v>
+        <v>0.985915492957746</v>
       </c>
       <c r="S4">
-        <v>0.0267639902676399</v>
+        <v>0.0170496664195701</v>
       </c>
       <c r="T4">
-        <v>0.403892944038929</v>
+        <v>0.00148257968865827</v>
       </c>
       <c r="U4">
-        <v>0.367396593673966</v>
+        <v>0.0259451445515196</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.966641957005189</v>
       </c>
       <c r="W4">
-        <v>0.0072992700729927</v>
+        <v>0.987398072646405</v>
       </c>
       <c r="X4">
-        <v>0.25669099756691</v>
+        <v>0.992587101556709</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0279805352798054</v>
+        <v>0.00370644922164566</v>
       </c>
       <c r="C5">
-        <v>0.251824817518248</v>
+        <v>0.000741289844329133</v>
       </c>
       <c r="D5">
-        <v>0.317518248175182</v>
+        <v>0.296515937731653</v>
       </c>
       <c r="E5">
-        <v>0.345498783454988</v>
+        <v>0.00370644922164566</v>
       </c>
       <c r="F5">
-        <v>0.255474452554745</v>
+        <v>0.941438102297999</v>
       </c>
       <c r="G5">
-        <v>0.144768856447689</v>
+        <v>0.00370644922164566</v>
       </c>
       <c r="H5">
-        <v>0.284671532846715</v>
+        <v>0.0118606375092661</v>
       </c>
       <c r="I5">
-        <v>0.554744525547445</v>
+        <v>0.0370644922164566</v>
       </c>
       <c r="J5">
-        <v>0.173965936739659</v>
+        <v>0.011119347664937</v>
       </c>
       <c r="K5">
-        <v>0.452554744525547</v>
+        <v>0.97405485544848</v>
       </c>
       <c r="L5">
-        <v>0.166666666666667</v>
+        <v>0.0022238695329874</v>
       </c>
       <c r="M5">
-        <v>0.261557177615572</v>
+        <v>0.000741289844329133</v>
       </c>
       <c r="N5">
-        <v>0.562043795620438</v>
+        <v>0.00296515937731653</v>
       </c>
       <c r="O5">
-        <v>0.0985401459854015</v>
+        <v>0.0133432171979244</v>
       </c>
       <c r="P5">
-        <v>0.319951338199513</v>
+        <v>0.00667160859896219</v>
       </c>
       <c r="Q5">
-        <v>0.0900243309002433</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.602189781021898</v>
+        <v>0.00593031875463306</v>
       </c>
       <c r="S5">
-        <v>0.361313868613139</v>
+        <v>0.000741289844329133</v>
       </c>
       <c r="T5">
-        <v>0.222627737226277</v>
+        <v>0.00889547813194959</v>
       </c>
       <c r="U5">
-        <v>0.360097323600973</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.0044477390659748</v>
       </c>
       <c r="W5">
-        <v>0.383211678832117</v>
+        <v>0.0022238695329874</v>
       </c>
       <c r="X5">
-        <v>0.240875912408759</v>
+        <v>0.00148257968865827</v>
       </c>
     </row>
   </sheetData>
